--- a/13-small-multiples/penguins-small-multiples.xlsx
+++ b/13-small-multiples/penguins-small-multiples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\13-small-multiples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0E0139-ABA5-46C9-9837-C8513A058688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CE5112-7C2E-459C-A390-4F9EB0B29742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,16 +781,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>551088</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>244929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>835603</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>475013</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>263713</xdr:rowOff>
+      <xdr:rowOff>243302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -818,7 +818,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9831161" y="796019"/>
+          <a:off x="11293928" y="775608"/>
           <a:ext cx="8129032" cy="2651765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -928,16 +928,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156482</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>102054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>50967</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>188770</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207449</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>25484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -965,7 +965,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9831161" y="12736286"/>
+          <a:off x="10899322" y="12838340"/>
           <a:ext cx="10991110" cy="5495555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
